--- a/411 Project/Knock Lock/BOMs/Knock Lock BOM.xlsx
+++ b/411 Project/Knock Lock/BOMs/Knock Lock BOM.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>PWA Level</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Batteries</t>
+  </si>
+  <si>
+    <t>ATmega88A</t>
   </si>
 </sst>
 </file>
@@ -523,7 +526,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -539,6 +542,11 @@
     <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +589,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -862,7 +870,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
